--- a/DRDC EMPLOYEE LIST.xlsx
+++ b/DRDC EMPLOYEE LIST.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome\Desktop\avega-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453F6E9C-C9E8-47EA-84A3-346860982838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FEC140-FDB0-49B5-8210-34799A322C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C4735F7F-6429-4A73-BBC5-C472EB1C7249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{C4735F7F-6429-4A73-BBC5-C472EB1C7249}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="237">
   <si>
     <t>Department</t>
   </si>
@@ -1138,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAD3206-2DB4-4714-9A89-CE55396BB97E}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -1922,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C86FAD8-413F-4255-9A55-99D9AB7E6D10}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,7 +2288,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>171</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>173</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>175</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>232</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>176</v>
       </c>
@@ -2363,8 +2364,11 @@
       <c r="C40" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>177</v>
       </c>
@@ -2374,8 +2378,11 @@
       <c r="C41" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -2385,8 +2392,11 @@
       <c r="C42" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>179</v>
       </c>
@@ -2396,8 +2406,11 @@
       <c r="C43" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -2407,8 +2420,11 @@
       <c r="C44" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>181</v>
       </c>
@@ -2418,8 +2434,11 @@
       <c r="C45" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -2429,8 +2448,11 @@
       <c r="C46" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -2440,8 +2462,11 @@
       <c r="C47" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>184</v>
       </c>
@@ -2451,8 +2476,11 @@
       <c r="C48" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -2462,8 +2490,11 @@
       <c r="C49" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>186</v>
       </c>
@@ -2473,8 +2504,11 @@
       <c r="C50" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>187</v>
       </c>
@@ -2484,8 +2518,11 @@
       <c r="C51" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>188</v>
       </c>
@@ -2495,8 +2532,11 @@
       <c r="C52" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -2506,8 +2546,11 @@
       <c r="C53" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>190</v>
       </c>
@@ -2517,8 +2560,11 @@
       <c r="C54" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -2529,7 +2575,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -2540,7 +2586,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -2551,7 +2597,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>225</v>
       </c>
@@ -2562,7 +2608,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>227</v>
       </c>
@@ -2573,7 +2619,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>228</v>
       </c>
@@ -2584,7 +2630,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>229</v>
       </c>
@@ -2595,7 +2641,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>230</v>
       </c>
@@ -2606,7 +2652,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>231</v>
       </c>
@@ -2617,7 +2663,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>233</v>
       </c>
@@ -2824,6 +2870,631 @@
       </c>
       <c r="C86" s="5" t="s">
         <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530C1ACC-AA3C-47A3-93F4-486F2BAF75B7}">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/DRDC EMPLOYEE LIST.xlsx
+++ b/DRDC EMPLOYEE LIST.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome\Desktop\avega-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6225D5-E7E1-452D-AE5F-3A213909E079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8376DB18-49D3-4DC1-BB03-3AD7D60748D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="242">
   <si>
     <t>Department</t>
   </si>
@@ -740,10 +741,19 @@
     <t>ATIM, RIZALDY</t>
   </si>
   <si>
-    <t>ANGELES, LEOSELLE ARCENO2</t>
-  </si>
-  <si>
-    <t>WCC</t>
+    <t>CAPARAS, CHARLES VICTOR EDQUILA</t>
+  </si>
+  <si>
+    <t>ESTOESTA, JOSEPH MADULID</t>
+  </si>
+  <si>
+    <t>DELOS REYES, JOHN CARLO</t>
+  </si>
+  <si>
+    <t>ANGELES, MA. LEOSELLE ARCENO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELLINGTON PLACE </t>
   </si>
 </sst>
 </file>
@@ -782,12 +792,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -808,7 +830,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -818,6 +840,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1019,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -2760,18 +2784,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="16384" max="16384" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="16381" max="16384" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2863,151 +2887,151 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>153</v>
+      <c r="A9" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="B9" t="s">
         <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
         <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
         <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
         <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
         <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
         <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
         <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
         <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>163</v>
+      <c r="A18" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="B18" t="s">
         <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
         <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
         <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s">
         <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
         <v>139</v>
@@ -3018,40 +3042,40 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
         <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
         <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
         <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
         <v>139</v>
@@ -3062,139 +3086,139 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
         <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
         <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s">
         <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s">
         <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s">
         <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s">
         <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
         <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
         <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
         <v>187</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s">
         <v>187</v>
@@ -3205,62 +3229,62 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s">
         <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>195</v>
+      <c r="A41" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="B41" t="s">
         <v>187</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B42" t="s">
         <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B43" t="s">
         <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B44" t="s">
         <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s">
         <v>187</v>
@@ -3271,62 +3295,62 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B46" t="s">
         <v>187</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B51" t="s">
         <v>223</v>
@@ -3337,7 +3361,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s">
         <v>223</v>
@@ -3348,7 +3372,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s">
         <v>223</v>
@@ -3359,35 +3383,706 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C54" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F9AB0F-C99E-45CC-A98C-D9AC18CEDDDB}">
+  <dimension ref="A1:C57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="16381" max="16384" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>237</v>
       </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>227</v>
+      </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/DRDC EMPLOYEE LIST.xlsx
+++ b/DRDC EMPLOYEE LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome\Desktop\avega-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8376DB18-49D3-4DC1-BB03-3AD7D60748D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C69E6C-D9C4-4C7E-B0EC-8FF364620751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="246">
   <si>
     <t>Department</t>
   </si>
@@ -754,6 +755,18 @@
   </si>
   <si>
     <t xml:space="preserve">WELLINGTON PLACE </t>
+  </si>
+  <si>
+    <t>ARCEGA, NOEL CALUNGSOD</t>
+  </si>
+  <si>
+    <t>GALLARTE, MYRNA DOMAGSANG</t>
+  </si>
+  <si>
+    <t>CELESTINO, JUHNE VILMA ALFORQUE</t>
+  </si>
+  <si>
+    <t>ARIANNE MAE BALMES BROWN</t>
   </si>
 </sst>
 </file>
@@ -3444,10 +3457,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F9AB0F-C99E-45CC-A98C-D9AC18CEDDDB}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,6 +3468,7 @@
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="16381" max="16384" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3653,7 +3667,7 @@
         <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3680,51 +3694,51 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s">
         <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
         <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
         <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
         <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
         <v>139</v>
@@ -3735,62 +3749,62 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
         <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
         <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s">
         <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
         <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
         <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
         <v>139</v>
@@ -3801,51 +3815,51 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
         <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
         <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
         <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
         <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
         <v>139</v>
@@ -3856,62 +3870,62 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s">
         <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="B39" t="s">
         <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="B40" t="s">
         <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>239</v>
+      <c r="A41" t="s">
+        <v>188</v>
       </c>
       <c r="B41" t="s">
         <v>187</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="B42" t="s">
         <v>187</v>
@@ -3922,29 +3936,29 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B43" t="s">
         <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B44" t="s">
         <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>197</v>
+      <c r="A45" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="B45" t="s">
         <v>187</v>
@@ -3955,7 +3969,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B46" t="s">
         <v>187</v>
@@ -3966,7 +3980,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
         <v>187</v>
@@ -3977,7 +3991,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B48" t="s">
         <v>187</v>
@@ -3988,7 +4002,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B49" t="s">
         <v>187</v>
@@ -3999,10 +4013,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
         <v>190</v>
@@ -4010,78 +4024,957 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B57" t="s">
         <v>223</v>
       </c>
       <c r="C57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F87935-4D19-46FE-8BD8-EBF3DC087C61}">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="16381" max="16384" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>233</v>
+      </c>
+      <c r="B55" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" t="s">
         <v>224</v>
       </c>
     </row>
